--- a/Doc/PHD_Papers/Thesis_Paper/Stable Wireless Blockchain Consensus Protocol/测试数据/Sybil_test/最终测试数据2/Compare_Figure3.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Stable Wireless Blockchain Consensus Protocol/测试数据/Sybil_test/最终测试数据2/Compare_Figure3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\测试数据\Sybil_test\第三次测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Stable Wireless Blockchain Consensus Protocol\测试数据\Sybil_test\最终测试数据2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BB4FE9-1F89-4715-8633-D806160D311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F6B28-9022-4863-9778-96CEFDD12C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency" sheetId="2" r:id="rId1"/>
@@ -243,34 +243,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.23425799999999999</c:v>
+                  <c:v>0.21320900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23444599999999999</c:v>
+                  <c:v>0.23513999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23460400000000001</c:v>
+                  <c:v>0.23528299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.236182</c:v>
+                  <c:v>0.23474300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.234707</c:v>
+                  <c:v>0.21228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.214286</c:v>
+                  <c:v>0.23569899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23583100000000001</c:v>
+                  <c:v>0.23629</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19316800000000001</c:v>
+                  <c:v>0.23685999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21506</c:v>
+                  <c:v>0.21887599999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19369800000000001</c:v>
+                  <c:v>0.218415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,34 +359,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.243032</c:v>
+                  <c:v>0.24276500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22517300000000001</c:v>
+                  <c:v>0.244586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24671899999999999</c:v>
+                  <c:v>0.245502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22525400000000001</c:v>
+                  <c:v>0.22579399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24590300000000001</c:v>
+                  <c:v>0.24562500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22240399999999999</c:v>
+                  <c:v>0.247337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24681400000000001</c:v>
+                  <c:v>0.248832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24771299999999999</c:v>
+                  <c:v>0.22617300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20843100000000001</c:v>
+                  <c:v>0.228599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25824599999999998</c:v>
+                  <c:v>0.21484500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,34 +475,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24485599999999999</c:v>
+                  <c:v>0.25256800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25444800000000001</c:v>
+                  <c:v>0.25300800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23785400000000001</c:v>
+                  <c:v>0.22973399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23433499999999999</c:v>
+                  <c:v>0.25678000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26000699999999999</c:v>
+                  <c:v>0.24174100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23463000000000001</c:v>
+                  <c:v>0.257969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26029600000000003</c:v>
+                  <c:v>0.25625599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22573799999999999</c:v>
+                  <c:v>0.235177</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26684999999999998</c:v>
+                  <c:v>0.26657900000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25565700000000002</c:v>
+                  <c:v>0.262241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,34 +597,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24485599999999999</c:v>
+                  <c:v>0.26186100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25444800000000001</c:v>
+                  <c:v>0.26270500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23785400000000001</c:v>
+                  <c:v>0.26962900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23433499999999999</c:v>
+                  <c:v>0.26767400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26000699999999999</c:v>
+                  <c:v>0.201766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23463000000000001</c:v>
+                  <c:v>0.21939500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26029600000000003</c:v>
+                  <c:v>0.249054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22573799999999999</c:v>
+                  <c:v>0.249665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26684999999999998</c:v>
+                  <c:v>0.27493299999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25565700000000002</c:v>
+                  <c:v>0.26991199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,34 +1042,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8738</c:v>
+                  <c:v>8639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8731</c:v>
+                  <c:v>8705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8725</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8667</c:v>
+                  <c:v>8720</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8721</c:v>
+                  <c:v>8677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8596</c:v>
+                  <c:v>8684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8679</c:v>
+                  <c:v>8663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8474</c:v>
+                  <c:v>8642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8565</c:v>
+                  <c:v>8415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8451</c:v>
+                  <c:v>8433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,34 +1158,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8422</c:v>
+                  <c:v>8432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8180</c:v>
+                  <c:v>8369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8296</c:v>
+                  <c:v>8338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8177</c:v>
+                  <c:v>8157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8324</c:v>
+                  <c:v>8333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8282</c:v>
+                  <c:v>8276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8293</c:v>
+                  <c:v>8226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8263</c:v>
+                  <c:v>8144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7853</c:v>
+                  <c:v>8057</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7926</c:v>
+                  <c:v>7619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,34 +1274,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7522</c:v>
+                  <c:v>8104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8044</c:v>
+                  <c:v>8090</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7744</c:v>
+                  <c:v>8017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7860</c:v>
+                  <c:v>7971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7872</c:v>
+                  <c:v>7619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7850</c:v>
+                  <c:v>7935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7864</c:v>
+                  <c:v>7988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7251</c:v>
+                  <c:v>6089</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7670</c:v>
+                  <c:v>7678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7204</c:v>
+                  <c:v>7024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,34 +1396,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7522</c:v>
+                  <c:v>7817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8044</c:v>
+                  <c:v>7792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7744</c:v>
+                  <c:v>7591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7860</c:v>
+                  <c:v>7647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7872</c:v>
+                  <c:v>7097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7850</c:v>
+                  <c:v>7461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7864</c:v>
+                  <c:v>7395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7251</c:v>
+                  <c:v>6556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7670</c:v>
+                  <c:v>7445</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7204</c:v>
+                  <c:v>6824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6E9818-2F30-4B44-AB0C-404176B5CE63}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3223,16 +3223,16 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.23425799999999999</v>
+        <v>0.21320900000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.243032</v>
+        <v>0.24276500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>0.24485599999999999</v>
+        <v>0.25256800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.24485599999999999</v>
+        <v>0.26186100000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3240,16 +3240,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.23444599999999999</v>
+        <v>0.23513999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>0.22517300000000001</v>
+        <v>0.244586</v>
       </c>
       <c r="D3" s="1">
-        <v>0.25444800000000001</v>
+        <v>0.25300800000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.25444800000000001</v>
+        <v>0.26270500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3257,16 +3257,16 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.23460400000000001</v>
+        <v>0.23528299999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>0.24671899999999999</v>
+        <v>0.245502</v>
       </c>
       <c r="D4" s="1">
-        <v>0.23785400000000001</v>
+        <v>0.22973399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.23785400000000001</v>
+        <v>0.26962900000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3274,16 +3274,16 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.236182</v>
+        <v>0.23474300000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>0.22525400000000001</v>
+        <v>0.22579399999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>0.23433499999999999</v>
+        <v>0.25678000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.23433499999999999</v>
+        <v>0.26767400000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3291,16 +3291,16 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.234707</v>
+        <v>0.21228</v>
       </c>
       <c r="C6" s="1">
-        <v>0.24590300000000001</v>
+        <v>0.24562500000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>0.26000699999999999</v>
+        <v>0.24174100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.26000699999999999</v>
+        <v>0.201766</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3308,16 +3308,16 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.214286</v>
+        <v>0.23569899999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.22240399999999999</v>
+        <v>0.247337</v>
       </c>
       <c r="D7" s="1">
-        <v>0.23463000000000001</v>
+        <v>0.257969</v>
       </c>
       <c r="E7" s="1">
-        <v>0.23463000000000001</v>
+        <v>0.21939500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3325,16 +3325,16 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>0.23583100000000001</v>
+        <v>0.23629</v>
       </c>
       <c r="C8" s="1">
-        <v>0.24681400000000001</v>
+        <v>0.248832</v>
       </c>
       <c r="D8" s="1">
-        <v>0.26029600000000003</v>
+        <v>0.25625599999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.26029600000000003</v>
+        <v>0.249054</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3342,16 +3342,16 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.19316800000000001</v>
+        <v>0.23685999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>0.24771299999999999</v>
+        <v>0.22617300000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0.22573799999999999</v>
+        <v>0.235177</v>
       </c>
       <c r="E9" s="1">
-        <v>0.22573799999999999</v>
+        <v>0.249665</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3359,16 +3359,16 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>0.21506</v>
+        <v>0.21887599999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>0.20843100000000001</v>
+        <v>0.228599</v>
       </c>
       <c r="D10" s="1">
-        <v>0.26684999999999998</v>
+        <v>0.26657900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.26684999999999998</v>
+        <v>0.27493299999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3376,16 +3376,16 @@
         <v>0.49</v>
       </c>
       <c r="B11" s="1">
-        <v>0.19369800000000001</v>
+        <v>0.218415</v>
       </c>
       <c r="C11" s="1">
-        <v>0.25824599999999998</v>
+        <v>0.21484500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>0.25565700000000002</v>
+        <v>0.262241</v>
       </c>
       <c r="E11" s="1">
-        <v>0.25565700000000002</v>
+        <v>0.26991199999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3433,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEF60D8-8EE4-4535-BD36-9220E17142E5}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3464,16 +3464,16 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>8738</v>
+        <v>8639</v>
       </c>
       <c r="C2" s="1">
-        <v>8422</v>
+        <v>8432</v>
       </c>
       <c r="D2" s="1">
-        <v>7522</v>
+        <v>8104</v>
       </c>
       <c r="E2" s="1">
-        <v>7522</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3481,16 +3481,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>8731</v>
+        <v>8705</v>
       </c>
       <c r="C3" s="1">
-        <v>8180</v>
+        <v>8369</v>
       </c>
       <c r="D3" s="1">
-        <v>8044</v>
+        <v>8090</v>
       </c>
       <c r="E3" s="1">
-        <v>8044</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3498,16 +3498,16 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>8725</v>
+        <v>8700</v>
       </c>
       <c r="C4" s="1">
-        <v>8296</v>
+        <v>8338</v>
       </c>
       <c r="D4" s="1">
-        <v>7744</v>
+        <v>8017</v>
       </c>
       <c r="E4" s="1">
-        <v>7744</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3515,16 +3515,16 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>8667</v>
+        <v>8720</v>
       </c>
       <c r="C5" s="1">
-        <v>8177</v>
+        <v>8157</v>
       </c>
       <c r="D5" s="1">
-        <v>7860</v>
+        <v>7971</v>
       </c>
       <c r="E5" s="1">
-        <v>7860</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3532,16 +3532,16 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>8721</v>
+        <v>8677</v>
       </c>
       <c r="C6" s="1">
-        <v>8324</v>
+        <v>8333</v>
       </c>
       <c r="D6" s="1">
-        <v>7872</v>
+        <v>7619</v>
       </c>
       <c r="E6" s="1">
-        <v>7872</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3549,16 +3549,16 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>8596</v>
+        <v>8684</v>
       </c>
       <c r="C7" s="1">
-        <v>8282</v>
+        <v>8276</v>
       </c>
       <c r="D7" s="1">
-        <v>7850</v>
+        <v>7935</v>
       </c>
       <c r="E7" s="1">
-        <v>7850</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3566,16 +3566,16 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>8679</v>
+        <v>8663</v>
       </c>
       <c r="C8" s="1">
-        <v>8293</v>
+        <v>8226</v>
       </c>
       <c r="D8" s="1">
-        <v>7864</v>
+        <v>7988</v>
       </c>
       <c r="E8" s="1">
-        <v>7864</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3583,16 +3583,16 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>8474</v>
+        <v>8642</v>
       </c>
       <c r="C9" s="1">
-        <v>8263</v>
+        <v>8144</v>
       </c>
       <c r="D9" s="1">
-        <v>7251</v>
+        <v>6089</v>
       </c>
       <c r="E9" s="1">
-        <v>7251</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3600,16 +3600,16 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>8565</v>
+        <v>8415</v>
       </c>
       <c r="C10" s="1">
-        <v>7853</v>
+        <v>8057</v>
       </c>
       <c r="D10" s="1">
-        <v>7670</v>
+        <v>7678</v>
       </c>
       <c r="E10" s="1">
-        <v>7670</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3617,16 +3617,16 @@
         <v>0.49</v>
       </c>
       <c r="B11" s="1">
-        <v>8451</v>
+        <v>8433</v>
       </c>
       <c r="C11" s="1">
-        <v>7926</v>
+        <v>7619</v>
       </c>
       <c r="D11" s="1">
-        <v>7204</v>
+        <v>7024</v>
       </c>
       <c r="E11" s="1">
-        <v>7204</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
